--- a/Base de datos/Data in Excel/Datos_resguardo_GHG.xlsx
+++ b/Base de datos/Data in Excel/Datos_resguardo_GHG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="250">
   <si>
     <t>Nº Inventario</t>
   </si>
@@ -628,6 +628,12 @@
     <t xml:space="preserve">TITAN HX4210   </t>
   </si>
   <si>
+    <t>417350000000000000</t>
+  </si>
+  <si>
+    <t>422720000000000000</t>
+  </si>
+  <si>
     <t xml:space="preserve">IMAC 21.5      </t>
   </si>
   <si>
@@ -649,6 +655,9 @@
     <t xml:space="preserve">CORP 4310      </t>
   </si>
   <si>
+    <t>429940000000000000</t>
+  </si>
+  <si>
     <t xml:space="preserve">CPU " TODO EN UNO MACCORE I5 8GB 500GB PANTALLA 21.5\"                                              </t>
   </si>
   <si>
@@ -674,6 +683,12 @@
   </si>
   <si>
     <t xml:space="preserve">LX900T         </t>
+  </si>
+  <si>
+    <t>1988110400085</t>
+  </si>
+  <si>
+    <t>1988110400086</t>
   </si>
   <si>
     <t xml:space="preserve">LNX22604257       </t>
@@ -756,10 +771,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -789,8 +804,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,22 +848,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -843,14 +864,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -858,23 +871,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,8 +887,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,6 +905,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,19 +933,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -954,7 +969,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,19 +1035,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,151 +1143,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,6 +1196,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1196,26 +1220,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,21 +1250,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1260,142 +1260,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1404,7 +1419,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1451,6 +1466,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1774,7 +1792,7 @@
   <dimension ref="A1:K227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F227" sqref="F2:F227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7991,8 +8009,8 @@
       <c r="E178" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F178" s="10">
-        <v>4.1735e+17</v>
+      <c r="F178" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>15</v>
@@ -8026,8 +8044,8 @@
       <c r="E179" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F179" s="10">
-        <v>4.1735e+17</v>
+      <c r="F179" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>15</v>
@@ -8061,8 +8079,8 @@
       <c r="E180" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F180" s="10">
-        <v>4.1735e+17</v>
+      <c r="F180" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>15</v>
@@ -8096,8 +8114,8 @@
       <c r="E181" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F181" s="10">
-        <v>4.1735e+17</v>
+      <c r="F181" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>15</v>
@@ -8131,8 +8149,8 @@
       <c r="E182" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F182" s="10">
-        <v>4.2272e+17</v>
+      <c r="F182" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>15</v>
@@ -8166,8 +8184,8 @@
       <c r="E183" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F183" s="10">
-        <v>4.2272e+17</v>
+      <c r="F183" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>15</v>
@@ -8201,8 +8219,8 @@
       <c r="E184" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F184" s="10">
-        <v>4.2272e+17</v>
+      <c r="F184" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>15</v>
@@ -8236,8 +8254,8 @@
       <c r="E185" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F185" s="10">
-        <v>4.2272e+17</v>
+      <c r="F185" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>15</v>
@@ -8271,8 +8289,8 @@
       <c r="E186" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F186" s="10">
-        <v>4.2272e+17</v>
+      <c r="F186" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>15</v>
@@ -8306,8 +8324,8 @@
       <c r="E187" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F187" s="10">
-        <v>4.2272e+17</v>
+      <c r="F187" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>15</v>
@@ -8336,13 +8354,13 @@
         <v>122</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F188" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>15</v>
@@ -8371,13 +8389,13 @@
         <v>122</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E189" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>15</v>
@@ -8406,13 +8424,13 @@
         <v>122</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E190" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>15</v>
@@ -8441,13 +8459,13 @@
         <v>122</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F191" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>15</v>
@@ -8476,13 +8494,13 @@
         <v>122</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E192" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F192" s="10">
-        <v>4.2994e+17</v>
+      <c r="F192" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>15</v>
@@ -8511,13 +8529,13 @@
         <v>122</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E193" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F193" s="10">
-        <v>4.2994e+17</v>
+      <c r="F193" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>15</v>
@@ -8546,13 +8564,13 @@
         <v>122</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E194" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F194" s="10">
-        <v>4.2994e+17</v>
+      <c r="F194" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>15</v>
@@ -8581,13 +8599,13 @@
         <v>122</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E195" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F195" s="10">
-        <v>4.2994e+17</v>
+      <c r="F195" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>15</v>
@@ -8616,13 +8634,13 @@
         <v>122</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E196" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F196" s="10">
-        <v>4.2994e+17</v>
+      <c r="F196" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>15</v>
@@ -8651,13 +8669,13 @@
         <v>122</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E197" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F197" s="10">
-        <v>4.2994e+17</v>
+      <c r="F197" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>15</v>
@@ -8686,13 +8704,13 @@
         <v>122</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E198" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F198" s="10">
-        <v>4.2994e+17</v>
+      <c r="F198" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>15</v>
@@ -8721,13 +8739,13 @@
         <v>122</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E199" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F199" s="10">
-        <v>4.2994e+17</v>
+      <c r="F199" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>15</v>
@@ -8753,16 +8771,16 @@
         <v>51510040902</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F200" s="10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>15</v>
@@ -8788,16 +8806,16 @@
         <v>51510040908</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F201" s="10" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>15</v>
@@ -8823,16 +8841,16 @@
         <v>51510019791</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E202" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F202" s="10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>15</v>
@@ -8858,16 +8876,16 @@
         <v>51510023953</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E203" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F203" s="10">
-        <v>1988110400085</v>
+      <c r="F203" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>15</v>
@@ -8893,16 +8911,16 @@
         <v>51510023954</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E204" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F204" s="10">
-        <v>1988110400086</v>
+      <c r="F204" s="15" t="s">
+        <v>224</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>15</v>
@@ -8928,16 +8946,16 @@
         <v>51510028825</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E205" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F205" s="10" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>15</v>
@@ -8963,16 +8981,16 @@
         <v>51510028826</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E206" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F206" s="10" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>15</v>
@@ -8998,16 +9016,16 @@
         <v>51510028830</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E207" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F207" s="10" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>15</v>
@@ -9033,16 +9051,16 @@
         <v>51510028832</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E208" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F208" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G208" s="2" t="s">
         <v>15</v>
@@ -9068,16 +9086,16 @@
         <v>51510028833</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E209" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F209" s="10" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>15</v>
@@ -9103,16 +9121,16 @@
         <v>51510028835</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E210" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F210" s="10" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G210" s="2" t="s">
         <v>15</v>
@@ -9138,16 +9156,16 @@
         <v>51510031619</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E211" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F211" s="10" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>15</v>
@@ -9173,16 +9191,16 @@
         <v>51510031620</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E212" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F212" s="10" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>15</v>
@@ -9208,16 +9226,16 @@
         <v>51510031621</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E213" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F213" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>15</v>
@@ -9243,16 +9261,16 @@
         <v>51510031622</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E214" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F214" s="10" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>15</v>
@@ -9278,16 +9296,16 @@
         <v>51510031623</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E215" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F215" s="10" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>15</v>
@@ -9313,16 +9331,16 @@
         <v>51510031624</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E216" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G216" s="2" t="s">
         <v>15</v>
@@ -9348,16 +9366,16 @@
         <v>51510031674</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E217" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F217" s="10" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>15</v>
@@ -9383,16 +9401,16 @@
         <v>51510034182</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E218" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F218" s="10" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>15</v>
@@ -9418,16 +9436,16 @@
         <v>51510034183</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E219" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F219" s="10" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G219" s="2" t="s">
         <v>15</v>
@@ -9453,16 +9471,16 @@
         <v>51510034184</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E220" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F220" s="10" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>15</v>
@@ -9488,16 +9506,16 @@
         <v>51510034185</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E221" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G221" s="2" t="s">
         <v>15</v>
@@ -9523,16 +9541,16 @@
         <v>51510034186</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E222" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G222" s="2" t="s">
         <v>15</v>
@@ -9558,16 +9576,16 @@
         <v>51510034188</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E223" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F223" s="10" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>15</v>
@@ -9593,16 +9611,16 @@
         <v>51510034189</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E224" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F224" s="10" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>15</v>
@@ -9628,16 +9646,16 @@
         <v>51510034190</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E225" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F225" s="10" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>15</v>
@@ -9663,16 +9681,16 @@
         <v>51510034191</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E226" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F226" s="10" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>15</v>
@@ -9698,7 +9716,7 @@
         <v>51110089850</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D227" s="10" t="s">
         <v>178</v>
